--- a/harrypotterfamilytree.xlsx
+++ b/harrypotterfamilytree.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Molaro\Google Drive\Python Scripts\Family Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Google Drive\Python Scripts\Family Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F92D6253-C552-40B0-8FEF-38F36C78BE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A16CF1F-59EA-4A96-A7CB-19FFAE2C5CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2256" windowWidth="13224" windowHeight="10404" xr2:uid="{7D77F5EC-00EB-4EAC-B833-6F47BF6450FF}"/>
+    <workbookView xWindow="28680" yWindow="-3825" windowWidth="18240" windowHeight="28440" xr2:uid="{7D77F5EC-00EB-4EAC-B833-6F47BF6450FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -86,15 +87,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Bill Weasley</t>
-  </si>
-  <si>
-    <t>Charlie Weasley</t>
-  </si>
-  <si>
-    <t>Percy Weasley</t>
-  </si>
-  <si>
     <t>Fred Weasley</t>
   </si>
   <si>
@@ -104,9 +96,6 @@
     <t>Ronald Weasley</t>
   </si>
   <si>
-    <t>Ginny Weasley</t>
-  </si>
-  <si>
     <t>Rose Weasley</t>
   </si>
   <si>
@@ -167,13 +156,55 @@
     <t>Fabian Prewett</t>
   </si>
   <si>
-    <t>Molly Dad</t>
-  </si>
-  <si>
-    <t>Lily Dad</t>
-  </si>
-  <si>
-    <t>Lily Mom</t>
+    <t>Fleamont Potter</t>
+  </si>
+  <si>
+    <t>Euphemia Potter</t>
+  </si>
+  <si>
+    <t>Ginevra Molly Weasley</t>
+  </si>
+  <si>
+    <t>Willilam Arther Weasley</t>
+  </si>
+  <si>
+    <t>Charles Weasley</t>
+  </si>
+  <si>
+    <t>Percy Ignatius Weasley</t>
+  </si>
+  <si>
+    <t>Pure-blood wizard considered to be a blood traitor by his wife's family</t>
+  </si>
+  <si>
+    <t>Was disowned and burned off black family tree tapestry</t>
+  </si>
+  <si>
+    <t>English pure-blood wizard</t>
+  </si>
+  <si>
+    <t>Pure-blood witch</t>
+  </si>
+  <si>
+    <t>Lily's Dad</t>
+  </si>
+  <si>
+    <t>Lily's Mom</t>
+  </si>
+  <si>
+    <t>Molly's Dad</t>
+  </si>
+  <si>
+    <t>British muggle from Cokeworth England. Proud of his magical daughter</t>
+  </si>
+  <si>
+    <t>British muggle from Cokeworth England. Proud of her magical daughter</t>
+  </si>
+  <si>
+    <t>Born into wealthy pure-blooded wizard family. Prominent Wizengamot member. Gryffindor house.</t>
+  </si>
+  <si>
+    <t>Had difficulty having children. Succumbed to dragon pox shortly after marriage of son James</t>
   </si>
 </sst>
 </file>
@@ -434,15 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61331FB6-0F5D-47F9-84BE-5F413DA270D4}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,76 +511,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>1960</v>
+      </c>
+      <c r="H5">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>1960</v>
+      </c>
+      <c r="H6">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -552,63 +646,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -616,13 +713,22 @@
       <c r="F11">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -630,19 +736,16 @@
       <c r="F12">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -650,13 +753,25 @@
       <c r="F13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1978</v>
+      </c>
+      <c r="H13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -664,16 +779,19 @@
       <c r="F14">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -684,33 +802,30 @@
       <c r="F15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -719,26 +834,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -747,12 +862,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -761,94 +876,94 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>33</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>37</v>
-      </c>
-      <c r="F23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -857,12 +972,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -871,26 +986,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -899,26 +1014,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -927,82 +1042,88 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="E32">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C33">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E36">
+        <v>37</v>
+      </c>
+      <c r="F36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-      <c r="F34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
       </c>
       <c r="E37">
         <v>37</v>
@@ -1011,68 +1132,106 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
         <v>37</v>
       </c>
-      <c r="F38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41">
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
       <c r="C42">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
